--- a/biology/Botanique/Ptychotis_saxifraga/Ptychotis_saxifraga.xlsx
+++ b/biology/Botanique/Ptychotis_saxifraga/Ptychotis_saxifraga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ptychotis saxifraga est une espèce de plantes herbacées bisannuelles de la famille des Apiaceae, spontanée, mais relativement rare, dans les régions montagneuses du sud-ouest européen, notamment dans les Alpes maritimes (France, Italie).
 Nom vernaculaire : Ptychotis saxifrage, Ptychotis à feuilles variées.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ptychotis saxifrage est une plante herbacée bisannuelle de 40 à 80 cm de haut.
 La tige, très ramifiée, est sillonnée de stries dans le sens de la longueur. La racine est du type pivotant.
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce spontanée dans l'Europe du Sud-Ouest (Sud-Est de la France, Suisse, Italie, péninsule Ibérique).
 On la trouve jusqu'à 1500 à 2000 mètres d'altitude dans des zones rocailleuses, calcaires.
@@ -579,7 +595,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ptychotis heterophylla  W.D.J.Koch.
 Seseli saxifragum L.</t>
